--- a/电负荷预测/output_results/predictions.xlsx
+++ b/电负荷预测/output_results/predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:A337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,482 +461,1682 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58.32536697387695</v>
+        <v>861.0885009765625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>57.39171981811523</v>
+        <v>865.9815063476562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57.48046112060547</v>
+        <v>871.5396728515625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57.42005920410156</v>
+        <v>875.0242309570312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>57.38053131103516</v>
+        <v>876.8915405273438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>57.46174621582031</v>
+        <v>879.1922607421875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79.61129760742188</v>
+        <v>878.6681518554688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>160.1988220214844</v>
+        <v>876.0855712890625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>377.7170104980469</v>
+        <v>877.4384155273438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>334.3483581542969</v>
+        <v>888.5086059570312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>319.4439392089844</v>
+        <v>884.7115478515625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>318.1662292480469</v>
+        <v>919.6681518554688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>313.5035095214844</v>
+        <v>2464.896484375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>315.0223388671875</v>
+        <v>2492.25439453125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>306.2530822753906</v>
+        <v>2484.775146484375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>308.0429382324219</v>
+        <v>2474.26318359375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>316.6567993164062</v>
+        <v>2457.10400390625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>222.6976776123047</v>
+        <v>2454.97265625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>118.2596054077148</v>
+        <v>2476.909423828125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111.8383712768555</v>
+        <v>2522.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99.02772521972656</v>
+        <v>2577.912353515625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95.70993041992188</v>
+        <v>2624.755126953125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>80.92266845703125</v>
+        <v>2659.70068359375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>72.77644348144531</v>
+        <v>2688.2724609375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>42.75031280517578</v>
+        <v>2713.16455078125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43.9261474609375</v>
+        <v>2725.183349609375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>44.16046905517578</v>
+        <v>2728.0888671875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43.99012756347656</v>
+        <v>2728.254150390625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43.55956268310547</v>
+        <v>2727.31689453125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>42.93100738525391</v>
+        <v>2725.8408203125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>57.11408996582031</v>
+        <v>2724.2060546875</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>58.85867691040039</v>
+        <v>2722.484375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57.27762985229492</v>
+        <v>2720.877685546875</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55.39935302734375</v>
+        <v>2719.612548828125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>55.88849258422852</v>
+        <v>2719.100830078125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>56.54148483276367</v>
+        <v>2720.19921875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>56.68947982788086</v>
+        <v>2724.197998046875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>55.24589920043945</v>
+        <v>2731.713623046875</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>55.01641845703125</v>
+        <v>2740.961669921875</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>55.02816772460938</v>
+        <v>2748.890380859375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>55.02739715576172</v>
+        <v>2754.23681640625</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>52.92623901367188</v>
+        <v>2757.75341796875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.78221893310547</v>
+        <v>2759.417724609375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43.72404861450195</v>
+        <v>2758.84423828125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43.84713745117188</v>
+        <v>2753.718017578125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43.89274597167969</v>
+        <v>2739.842041015625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43.79971313476562</v>
+        <v>2714.0439453125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43.82946014404297</v>
+        <v>2677.946044921875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>56.56108474731445</v>
+        <v>836.5511474609375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56.25909805297852</v>
+        <v>839.692626953125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56.62653732299805</v>
+        <v>842.7898559570312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>57.42702484130859</v>
+        <v>845.49560546875</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>57.7210693359375</v>
+        <v>848.20458984375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56.79570388793945</v>
+        <v>850.89013671875</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>84.11920166015625</v>
+        <v>853.3369140625</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>182.7217254638672</v>
+        <v>855.4515991210938</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>378.9292602539062</v>
+        <v>857.2689208984375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>324.0760803222656</v>
+        <v>858.8157348632812</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>304.4496459960938</v>
+        <v>860.0287475585938</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>311.8889465332031</v>
+        <v>860.915771484375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>317.9934387207031</v>
+        <v>861.908447265625</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>320.0340270996094</v>
+        <v>863.370849609375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>303.4987487792969</v>
+        <v>864.7096557617188</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>302.7330017089844</v>
+        <v>865.0133666992188</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>316.1656188964844</v>
+        <v>864.0692749023438</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>224.2754821777344</v>
+        <v>862.3338012695312</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>119.3046340942383</v>
+        <v>860.3660888671875</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111.7343826293945</v>
+        <v>858.4576416015625</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>98.9617919921875</v>
+        <v>856.5794067382812</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>95.47784423828125</v>
+        <v>854.5706176757812</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>80.59342193603516</v>
+        <v>852.4371337890625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72.54766845703125</v>
+        <v>850.4931030273438</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>48.65196990966797</v>
+        <v>849.1382446289062</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>44.33643341064453</v>
+        <v>848.6295776367188</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43.70500183105469</v>
+        <v>850.2332763671875</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43.81629943847656</v>
+        <v>860.0665893554688</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43.62801361083984</v>
+        <v>864.5284423828125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>48.2945556640625</v>
+        <v>856.94384765625</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79.83108520507812</v>
+        <v>856.2940063476562</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>101.2992630004883</v>
+        <v>859.4440307617188</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>148.0165710449219</v>
+        <v>863.9902954101562</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>152.8246612548828</v>
+        <v>869.7695922851562</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>144.4805755615234</v>
+        <v>874.5426025390625</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>151.9471282958984</v>
+        <v>876.8442993164062</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>106.3765335083008</v>
+        <v>878.9470825195312</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>93.34423828125</v>
+        <v>879.39501953125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>86.03234100341797</v>
+        <v>877.1218872070312</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>81.78330230712891</v>
+        <v>876.1925048828125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>82.19181060791016</v>
+        <v>884.8395385742188</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>63.71140670776367</v>
+        <v>888.503173828125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>55.50222778320312</v>
+        <v>896.8560180664062</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>45.63283920288086</v>
+        <v>1549.496459960938</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>44.36412048339844</v>
+        <v>2496.324951171875</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>44.16762924194336</v>
+        <v>2481.3955078125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>44.17465972900391</v>
+        <v>2474.67724609375</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>42.85670471191406</v>
+        <v>2463.955810546875</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>858.23486328125</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>859.9782104492188</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>859.9552001953125</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>861.9732666015625</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>880.0098876953125</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>900.536865234375</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>899.8480224609375</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>887.9425659179688</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>870.0551147460938</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>856.2998657226562</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>860.7266235351562</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>916.7448120117188</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1038.804565429688</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1077.300170898438</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1066.610107421875</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1356.600952148438</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2461.796630859375</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2471.334716796875</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2467.310302734375</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2458.16748046875</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2459.43603515625</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2490.854736328125</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2547.471923828125</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2608.79541015625</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2662.57958984375</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2703.35009765625</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2722.480224609375</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2729.3759765625</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2731.37548828125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2731.45556640625</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2730.75634765625</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2729.75146484375</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2728.675537109375</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2727.685546875</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2726.94140625</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2726.68359375</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2727.31396484375</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2729.421630859375</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2733.5390625</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2739.4970703125</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2746.077392578125</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2751.823974609375</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2756.0673828125</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2758.906494140625</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2760.687255859375</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2761.695556640625</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2762.08740234375</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2761.8994140625</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>892.5162963867188</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>886.3987426757812</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1081.56005859375</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2507.40966796875</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2494.036865234375</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2481.889892578125</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2473.20166015625</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2460.63671875</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2468.859619140625</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2503.078857421875</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2556.070068359375</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2607.912109375</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2648.25732421875</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2682.989501953125</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2712.5263671875</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2725.9462890625</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2729.510986328125</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2730.06591796875</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2729.49072265625</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2728.40185546875</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2727.093505859375</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2725.7421875</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2724.48388671875</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2723.468017578125</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2722.938720703125</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2723.356689453125</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2725.505615234375</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2730.229248046875</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2737.416259765625</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2745.303955078125</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2751.877685546875</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2756.463623046875</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2759.41259765625</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2761.205810546875</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2762.051025390625</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2761.76171875</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2759.65380859375</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2754.49609375</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2744.763671875</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2729.3623046875</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2708.1845703125</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2683.1708984375</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2661.116943359375</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2650.1748046875</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2653.0859375</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2667.3095703125</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2687.528564453125</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2710.83251953125</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>813.9288330078125</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>818.9461059570312</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>819.09033203125</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>817.1592407226562</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>815.180908203125</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>813.63037109375</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>811.9641723632812</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>809.3496704101562</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>806.3750610351562</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>804.6968994140625</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>804.750732421875</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>805.7363891601562</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>809.5957641601562</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>805.0070190429688</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>805.4683227539062</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>806.4535522460938</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>806.9917602539062</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>807.1256103515625</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>807.9196166992188</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>811.7029418945312</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>813.3020629882812</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>815.7066650390625</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>818.929443359375</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>821.8931274414062</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>824.8486938476562</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>828.236572265625</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>831.775146484375</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>834.9561157226562</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>837.7393188476562</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>840.5745239257812</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>843.3406982421875</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>844.9124755859375</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>844.8524169921875</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>844.4913330078125</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>843.7822265625</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>842.8467407226562</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>839.6231079101562</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>848.8399658203125</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>842.5556030273438</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>905.9183349609375</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2439.0546875</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2474.2392578125</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2477.02734375</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2469.4013671875</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2450.430419921875</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2440.43505859375</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2446.741455078125</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2472.191162109375</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2745.437744140625</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2844.061279296875</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2909.31640625</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2938.63720703125</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2951.034912109375</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2968.97900390625</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2998.317138671875</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>3017.25537109375</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>3026.1279296875</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>3031.369384765625</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>3034.93896484375</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>3037.47607421875</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>3039.34716796875</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>3040.7607421875</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>3041.884033203125</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>3042.80810546875</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>3043.595703125</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>3044.2841796875</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>3044.914306640625</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>3045.493408203125</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>3046.0361328125</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>3046.54638671875</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>3047.041015625</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>3047.50537109375</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>3047.948486328125</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>3048.428466796875</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>3048.7783203125</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>3049.141845703125</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>3049.467041015625</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>3049.7998046875</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>3049.930908203125</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>3058.5029296875</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>3057.702392578125</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>3056.46923828125</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>3054.560791015625</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>3054.87744140625</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>3056.1728515625</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>3055.896484375</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3054.67919921875</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>3052.432373046875</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>3049.255126953125</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>3040.01025390625</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3036.09375</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>3031.818603515625</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3027.598388671875</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>3022.726806640625</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>3016.578369140625</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>3009.97314453125</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2777.212890625</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2777.64306640625</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2778.084228515625</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2778.442138671875</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2778.69580078125</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2779.010009765625</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2779.10888671875</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2779.083740234375</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>2779.445556640625</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>2751.15283203125</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>2753.138427734375</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>2752.48291015625</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>2753.119140625</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2762.6171875</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2771.04296875</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>2771.900634765625</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>2765.53369140625</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2765.888427734375</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>2772.364501953125</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>2774.69189453125</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>2762.660888671875</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>2746.688720703125</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>2725.080078125</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>2696.865966796875</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>2672.75439453125</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2637.728271484375</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>2606.13330078125</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>2593.604248046875</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>2592.176513671875</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2568.84521484375</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2467.541015625</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2394.03369140625</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>2362.222900390625</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2370.53173828125</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>2384.9794921875</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>2392.728515625</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>2348.48046875</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2330.246826171875</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>2315.405517578125</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>2286.9111328125</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>2262.36865234375</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>2241.50927734375</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>2225.79296875</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2215.94482421875</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2210.644775390625</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>2207.9833984375</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>2206.666015625</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>2205.947509765625</v>
       </c>
     </row>
   </sheetData>
